--- a/Заказы/test/result+90.xlsx
+++ b/Заказы/test/result+90.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="OutResult+Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,10 +432,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -494,85 +494,93 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Стяжка (ремень) груза с лебедкой 12 метров (УСИЛЕННАЯ) 5-10 тонн КСМ | -</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Стяжка груза с храповым механизмом в сборе 12 м (ЕВРО, ЛЕНТА ШИРОКАЯ,  УСИЛЕННАЯ 10 ТОНН)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>СГ-5-10Т-12м-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>95</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1295</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10Т12М5СГСПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>95</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2715205510 | Трапеция стеклоочистителя 2-х щеточная</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Трапеция стеклоочистителя 2-х щеточная</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>271-5205510-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>995</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>2715205510СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>2715205510</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>2715205510</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>33774929</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Барабан 53205-3501070 торм. ЕВРО КАМАЗ (10 отв) СМ | -</t>
+          <t>4721950180 | Модулятор АБС (472 195 018 0) СпецМаш</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Барабан тормозной 53205, НЕФАЗ-8332, 8560, 9334, 96741</t>
+          <t>Модулятор МАЗ, ПАЗ, НЕФАЗ 24 В, АБС, ан. WABCO</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>53205-3501070-СПЕЦМАШ</t>
+          <t>472 195 018 0-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6995</v>
+        <v>2375</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>350107053205СПЕЦМАШ</t>
+          <t>0018195472СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>53205-3501070</t>
+          <t>4721950180</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>350107053205</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
+          <t>4721950180</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>33765168</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="n">
         <v>100</v>
       </c>
@@ -580,41 +588,45 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Насос подъема кабины 45104-5004250 (одноконтурный) КАМАЗ СМ | -</t>
+          <t>53401012075 | Фильтр масляный ЯМЗ-534,650.10 СМ</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Насос подъёма кабины 45104 (одноконтурный)</t>
+          <t xml:space="preserve">Фильтр масляный дв. 534, 536 грубой очистки </t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45104-5004250-СПЕЦМАШ</t>
+          <t>5340.1012075-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4675</v>
+        <v>615</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>451045004250СПЕЦМАШ</t>
+          <t>10120755340СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45104-5004250</t>
+          <t>53401012075</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>451045004250</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
+          <t>53401012075</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>P5482561</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="n">
         <v>100</v>
       </c>
@@ -622,41 +634,45 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Тяга кулисы 6422-1703490-01  L-210 мм  МАЗ СМ | 2</t>
+          <t>53401308110 | Устройство натяжное ЯМЗ-534, 536 ЕВРО-4,Газон NEXT</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Тяга кулисы в сборе с пальцами L-215 мм (не разборный наконечник)</t>
+          <t>Устройство натяжное дв. 534, 536 ЕВРО-4</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6422-1703490-01-СПЕЦМАШ</t>
+          <t>5340.1308110-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>445</v>
+        <v>1795</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0117034906422СПЕЦМАШ</t>
+          <t>13081105340СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6422-1703490-01</t>
+          <t>53401308110</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0117034906422</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
+          <t>53401308110</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33781534</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="n">
         <v>100</v>
       </c>
@@ -664,41 +680,45 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Ось суппорта н/о 103-3501132  30*100 СМ | 4</t>
+          <t>543262402061020 | Фланец заднего моста МАЗ/4 отв./d-14мм/торцовый шлиц/D-65мм/FS/</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Ось суппорта нов.обр. МАЗ, ТЕФЛОН (упак. 5 шт)</t>
+          <t>Фланец редуктора заднего моста (шлиц D=65, Н=80мм, торц/шлиц)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>103-3501132-СПЕЦМАШ</t>
+          <t>54326-2402061-020-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>297</v>
+        <v>2175</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1033501132СПЕЦМАШ</t>
+          <t>020240206154326СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>103-3501132</t>
+          <t>543262402061020</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1033501132</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
+          <t>543262402061020</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33769393</t>
+        </is>
+      </c>
       <c r="J6" s="2" t="n">
         <v>100</v>
       </c>
@@ -706,41 +726,45 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Палец ушка задней 500А-2912478 рессоры 50*175 тефлон СМ | 2</t>
+          <t>64305206018 | Уплотнитель лобового стекла МАЗ-5440, 6430</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Палец ушка задней рессоры ТЕФЛОН МАЗ (L=50х175 мм) Соотв.ТУ по тверд. и качеству (упак. 2 шт)</t>
+          <t>Уплотнитель лобового стекла, для МАЗ-5440, 6430</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>500А-2912478-СПЕЦМАШ</t>
+          <t>6430-5206018-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>895</v>
+        <v>1595</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2912478500АСПЕЦМАШ</t>
+          <t>52060186430СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>500А-2912478</t>
+          <t>64305206018</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2912478500А</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr"/>
+          <t>64305206018</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33769810</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="n">
         <v>100</v>
       </c>
@@ -748,41 +772,45 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Гидроцилиндр подъема кабины ШНКФ.453198.214-СМ (с гидрозамком) ЕВРО-2,3 | 1</t>
+          <t>75111307155 | Устройство натяжное вод/насоса (шкив с выступом) В УПАКОВКЕ</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Гидроцилиндр подъема кабины (с гидрозамком) ЕВРО-2, 3</t>
+          <t>Устройство натяжное водяного насоса (шкив с выступом)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ШНКФ.453198.214-СПЕЦМАШ</t>
+          <t>7511-1307155-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7775</v>
+        <v>1595</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>214453198СПЕЦМАШШНКФ</t>
+          <t>13071557511СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>ШНКФ.453198.214-СМ</t>
+          <t>75111307155</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>214453198СМШНКФ</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
+          <t>75111307155</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33770579</t>
+        </is>
+      </c>
       <c r="J8" s="2" t="n">
         <v>100</v>
       </c>
@@ -790,426 +818,47 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Кран тормозной 2-секционный 8090-3514100 Н/О  МАЗ,КАМАЗ СМ | 1</t>
+          <t>AZF4581 | Стартер МАЗ с дв.ЯМЗ-236,238 10 зуб.5.5кВт24В(1852.3778,5432,3708,142Т-10,2562.3</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Кран тормозной 2-х секционный (ГТК) Н/О МАЗ, ЗИЛ, МЕРСЕДЕС, СКАНИЯ и др.</t>
+          <t>Стартер МАЗ с дв. 236, 238 Z-10, 5.5кВт 24В (1852.3778,5432,142Т-10,2562.3708-30,8922)</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8090-3514100-СПЕЦМАШ</t>
+          <t>AZF4581-СПЕЦМАШ</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2575</v>
+        <v>12775</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35141008090СПЕЦМАШ</t>
+          <t>AZF4581СПЕЦМАШ</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8090-3514100</t>
+          <t>AZF4581</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35141008090</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr"/>
+          <t>AZF4581</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33770596</t>
+        </is>
+      </c>
       <c r="J9" s="2" t="n">
         <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Рычаг 64226-3501136-010  регулировочный (эвольв.) п/автомат ПРЯМОЙ СМ | 2</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Рычаг регулировочный тормозной ПРЯМОЙ (эвольвентный шлиц, АВТОМАТ)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>64226-3501136-010-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>3375</v>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>010350113664226СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>64226-3501136-010</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>010350113664226</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Гайка М 24*2 пальца рулевого корончатая (тефлон) 251035-01 МАЗ СМ | 20</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Гайка М24х2 рулевого пальца МАЗ корончатая (ТЕФЛОН) (упак. 10 шт)</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>251035-01-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>01251035СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>251035-01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>01251035</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Болт М 10*48 крепления сильфонов и коллект.двиг. 310228-П СМ | 40</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Болт М10х48 мм крепления сильфона и коллекторов двигателя в сборе с гайкой (упак. 40 шт)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>310228-П-СБ-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>310228ПСБСПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>310228-П</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>310228П</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Вкладыш кронштейна рессоры МАЗ 504Н-2902449 СМ | 4</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Вкладыш кронштейна рессоры (верхний, "пятак") для МАЗ</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>504Н-2902449-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>535</v>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2902449504НСПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>504Н-2902449</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2902449504Н</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Болт М 10*40 кардана+гайка МАЗ 371264-250688 СМ | 40</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Болт карданный М10х40 мм + гайка, гровер (АЗОТИРОВАННАЯ СТАЛЬ) (упак. 40 шт)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>371264-250688-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>250688371264СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>371264-250688</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>250688371264</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Гайка М 22*1,5 колеса ЕВРО 93865-3104038-01 тефлон с насечкой СМ | 100</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Гайка колеса Евро (с юбкой) М22х1,5 ТЕФЛОН (ключ 32 мм) (упак. 10 шт)</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>93865-3104038-01-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>01310403893865СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>93865-3104038-01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>01310403893865</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Исходные тексты</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Извлеченные токены</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Причина</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::6</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::7</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::8</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::9</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::10</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>CLIENT::11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Упор газовый 11.8407010 облицовки МАЗ 64221 300/500 СМ | 2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>УПОР, ГАЗОВЫЙ, ОБЛИЦОВКИ, 64221, 300/500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>best_score=39.66101694915255&lt;min_score</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Упор газовый 11.8407010 облицовки МАЗ 64221 300/500 СМ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
